--- a/2025-10-22/22_ai.full_fixtures.xlsx
+++ b/2025-10-22/22_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +488,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg  - FC Orenburg: 18:30</t>
+          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -504,12 +504,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -523,15 +523,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
+          <t>CF América ✓ - Puebla FC: 2:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.65</v>
+        <v>2.22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>CF América</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,15 +539,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,31 +562,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CF América  - Puebla FC: 02:00</t>
+          <t>Real Madrid  - Juventus FC: 20:00</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.25</v>
+        <v>3.04</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CF América</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -593,15 +597,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odds BK - Lillestrøm SK : 17:00</t>
+          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lillestrøm SK</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -609,12 +613,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -628,31 +632,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Galatasaray  - FK Bodø/Glimt: 17:45</t>
+          <t>FC Santa Coloma ✓ - Penya Encarnada d'Andorra: 1:0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.22</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>FC Santa Coloma</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -663,15 +671,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Real Madrid  - Juventus FC: 20:00</t>
+          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.99</v>
+        <v>2.21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -679,12 +687,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -698,28 +706,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FC Sardarapat  - FC Andranik: 12:00</t>
+          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.57</v>
+        <v>0.88</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Sardarapat</t>
+          <t>JS Kabylie</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -733,28 +741,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FC Goa - Al-Nassr FC : 14:45</t>
+          <t>MC Algiers  - JS Saoura: 23:00</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.05</v>
+        <v>1.07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Nassr FC</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -768,31 +776,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
+          <t>Deportivo La Guaira  - Zamora FC: 1:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.07</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -803,28 +811,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aris Limassol  - Omonia 29is Maiou: 17:00</t>
+          <t>MC Algiers  - Paradou AC: 20:00</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.11</v>
+        <v>1.53</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -838,15 +846,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FK Panevėžys  - FK Riteriai: 17:00</t>
+          <t>CF Monterrey ✓ - FC Juárez: 4:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Panevėžys</t>
+          <t>CF Monterrey</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -854,12 +862,16 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -873,28 +885,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
+          <t>Atalanta BC  - SK Slavia Prague: 20:00</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.88</v>
+        <v>1.86</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JS Kabylie</t>
+          <t>Atalanta BC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -908,15 +920,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aalesunds FK  - Lyn 1896 FK: 17:00</t>
+          <t>FC Rànger's  - FC Pas de la Casa: 13:30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aalesunds FK</t>
+          <t>FC Rànger's</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -924,12 +936,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -943,28 +955,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FCI Levadia  - Paide Linnameeskond: 17:00</t>
+          <t>Sporting CP  - Olympique Marseille: 20:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.91</v>
+        <v>3.31</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FCI Levadia</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -978,31 +990,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MC Algiers  - JS Saoura: 23:00</t>
+          <t>Gamba Osaka ✓ - Thep Xanh Nam Dinh FC: 3:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.07</v>
+        <v>3.11</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1013,28 +1029,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kalev Tallinn - Kalju FC : 16:00</t>
+          <t>Swift Hesperange  - Racing FC Union Luxembourg: 19:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.74</v>
+        <v>1.59</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kalju FC</t>
+          <t>Swift Hesperange</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1048,15 +1064,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MC Algiers  - Paradou AC: 20:00</t>
+          <t>FC Ostrovets X - Dinamo-BGUFK Minsk: 0:1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>FC Ostrovets</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1064,15 +1080,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1083,15 +1103,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
+          <t>Ratchaburi FC ✓ - Eastern SC: 5:1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.21</v>
+        <v>2.97</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1099,12 +1119,16 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1118,28 +1142,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gamba Osaka  - Thep Xanh Nam Dinh FC: 11:00</t>
+          <t>Ratchaburi FC ✓ - Eastern: 5:1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1153,15 +1181,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dinamo Batumi  - FC Gareji: 12:00</t>
+          <t>Gangwon FC - Vissel Kobe X: 4:3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dinamo Batumi</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1169,12 +1197,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1188,28 +1220,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kongsvinger IL  - IL Hødd: 17:00</t>
+          <t>Bashkimi - Sileks Kratovo : 13:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.76</v>
+        <v>2.16</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kongsvinger IL</t>
+          <t>Sileks Kratovo</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1223,28 +1255,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Orlando Pirates  - Polokwane City FC: 18:30</t>
+          <t>FK Otrant-Olympic Ulcinj  - Rudar Pljevlja: 13:30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.96</v>
+        <v>1.95</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>FK Otrant-Olympic Ulcinj</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1258,28 +1290,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CF Monterrey  - FC Juárez: 04:05</t>
+          <t>MC Oran  - CS Constantine: 23:00</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CF Monterrey</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1293,28 +1325,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FC Santa Coloma  - Penya Encarnada d'Andorra: 13:30</t>
+          <t>USM Alger  - ASO Chlef: 23:00</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.42</v>
+        <v>0.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Santa Coloma</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1328,31 +1360,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ararati Araks - FC Hayk : 12:00</t>
+          <t>Maroons FC  - Calvary FC: 0:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.33</v>
+        <v>2.65</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Hayk</t>
+          <t>Maroons FC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1363,15 +1395,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Atalanta BC  - SK Slavia Prague: 20:00</t>
+          <t>Wrexham AFC  - Oxford United: 19:45</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Atalanta BC</t>
+          <t>Wrexham AFC</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1379,12 +1411,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1398,31 +1430,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FA Šiauliai  - FK Banga Gargždai: 16:30</t>
+          <t>Club Necaxa - CD Cruz Azul ✓: 1:2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.38</v>
+        <v>2.99</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FA Šiauliai</t>
+          <t>CD Cruz Azul</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1433,28 +1469,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FC Ararat Yerevan II - FC Ararat-Armenia II : 12:00</t>
+          <t>FK Iskra Danilovgrad  - Arsenal Tivat: 14:30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.29</v>
+        <v>1.13</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Ararat-Armenia II</t>
+          <t>FK Iskra Danilovgrad</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1468,15 +1504,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FC Rànger's  - FC Pas de la Casa: 13:30</t>
+          <t>Carabobo FC  - Metropolitanos FC: 22:30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Rànger's</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1484,12 +1520,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1503,15 +1539,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ES Zarzis - Esperance Tunis : 15:00</t>
+          <t>ES Mostaganem - CR Belouizdad : 23:00</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Esperance Tunis</t>
+          <t>CR Belouizdad</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1519,12 +1555,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1538,28 +1574,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sporting CP  - Olympique Marseille: 20:00</t>
+          <t>Makedonija Gjorce Petrov - Struga Trim &amp; Lum : 13:00</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.19</v>
+        <v>2.58</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Struga Trim &amp; Lum</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1573,31 +1609,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dynamo Moscow  - Krylya Sovetov Samara: 16:00</t>
+          <t>Millonarios FC  - Atlético Bucaramanga: 1:1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.88</v>
+        <v>1.41</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dynamo Moscow</t>
+          <t>Millonarios FC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1608,15 +1644,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APOEL Nicosia  - AEZ Zakakiou: 17:00</t>
+          <t>Shanghai Shenhua ✓ - FC Seoul: 2:0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>APOEL Nicosia</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1624,15 +1660,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1643,15 +1683,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FK Kauno Žalgiris  - FK Žalgiris Vilnius: 17:00</t>
+          <t>OSK Igalo  - FK Mladost Donja Gorica: 13:30</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FK Kauno Žalgiris</t>
+          <t>OSK Igalo</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1659,12 +1699,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1678,31 +1718,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HJK Helsinki  - SJK Seinäjoki: 17:00</t>
+          <t>PSIM Yogyakarta ✓ - Dewa United Banten FC: 2:0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.87</v>
+        <v>1.14</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>PSIM Yogyakarta</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1713,28 +1757,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Athletic Bilbao - Qarabağ FK : 17:45</t>
+          <t>Olympique Akbou  - MB Rouissat: 23:00</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.63</v>
+        <v>0.64</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1748,15 +1792,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gangwon FC - Vissel Kobe : 11:00</t>
+          <t>Swansea City  - Queens Park Rangers: 19:45</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1764,12 +1808,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1783,15 +1827,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BKMA Yerevan II  - FC Van II: 12:00</t>
+          <t>FK Jezero  - FK Bokelj: 14:30</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BKMA Yerevan II</t>
+          <t>FK Jezero</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1799,12 +1843,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1818,23 +1862,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stabæk Fotball  - Åsane Fotball: 17:00</t>
+          <t>Aurora FC  - Atlético Mictlán: 17:00</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.74</v>
+        <v>0.71</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Stabæk Fotball</t>
+          <t>Aurora FC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1853,31 +1897,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Maroons FC  - Calvary FC: 14:00</t>
+          <t>FC Kolkheti-1913 Poti X - FC Telavi: 0:1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.78</v>
+        <v>1.61</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Maroons FC</t>
+          <t>FC Kolkheti-1913 Poti</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1888,31 +1936,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs  - Siwelele Football Club: 18:30</t>
+          <t>CS Cartaginés ✓ - CD Motagua Tegucigalpa: 1:0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.72</v>
+        <v>1.57</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>CS Cartaginés</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1923,28 +1975,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ranheim IL  - Mjøndalen IF: 17:00</t>
+          <t>Deportivo Achuapa  - Deportivo Marquense: 22:00</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.09</v>
+        <v>0.72</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Deportivo Achuapa</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -1958,28 +2010,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Independiente del Valle  - Clube Atlético Mineiro: 01:30</t>
+          <t>Sheffield Wednesday - Middlesbrough FC : 20:00</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.52</v>
+        <v>2.21</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Independiente del Valle</t>
+          <t>Middlesbrough FC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -1993,15 +2045,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FC Inter Turku  - IF Gnistan: 16:00</t>
+          <t>FC Ordino X - UE Santa Coloma: 0:2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.79</v>
+        <v>2.47</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FC Inter Turku</t>
+          <t>FC Ordino</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2009,15 +2061,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2028,15 +2084,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Swift Hesperange  - Racing FC Union Luxembourg: 19:00</t>
+          <t>CA Huracán  - CA Central Córdoba (SdE): 23:30</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Swift Hesperange</t>
+          <t>CA Huracán</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2044,12 +2100,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2063,28 +2119,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transport United  - Ugyen Academy FC: 13:00</t>
+          <t>Eintracht Frankfurt - Liverpool FC : 20:00</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Transport United</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2098,28 +2154,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>El Masry SC  - Smouha SC: 18:00</t>
+          <t>FK Sutjeska Niksic  - FK Lovcen Cetinje: 15:00</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.91</v>
+        <v>1.78</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>El Masry SC</t>
+          <t>FK Sutjeska Niksic</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2133,28 +2189,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bashkimi - Sileks Kratovo : 13:00</t>
+          <t>Jedinstvo Bijelo Polje - OFK Petrovac : 14:00</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sileks Kratovo</t>
+          <t>OFK Petrovac</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2168,28 +2224,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Etoile Sportive du Sahel  - Olympique Beja: 15:00</t>
+          <t>AS Monaco - Tottenham Hotspur : 20:00</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.35</v>
+        <v>2.95</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Etoile Sportive du Sahel</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2203,15 +2259,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MC Oran  - CS Constantine: 23:00</t>
+          <t>Mazatlán FC  - Santos Laguna: 2:2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Mazatlán FC</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2219,12 +2275,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -2238,15 +2294,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Esteghlal FC  - Al-Wehdat SC: 17:00</t>
+          <t>Watford FC  - West Bromwich Albion: 19:45</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.78</v>
+        <v>1.13</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Esteghlal FC</t>
+          <t>Watford FC</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2254,12 +2310,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2273,15 +2329,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta  - Dewa United Banten FC: 09:30</t>
+          <t>Universitario de Vinto  - CA Nacional Potosí: 23:00</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.11</v>
+        <v>1.76</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2289,12 +2345,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -2308,28 +2364,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>USM Alger  - ASO Chlef: 23:00</t>
+          <t>Cumbayá FC  - Atlético Vinotinto: 21:00</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9</v>
+        <v>1.83</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Cumbayá FC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2343,15 +2399,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wrexham AFC  - Oxford United: 19:45</t>
+          <t>Lugazi FC  - Uganda Revenue Authority FC: 0:0</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wrexham AFC</t>
+          <t>Lugazi FC</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2359,15 +2415,15 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2378,28 +2434,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Club Necaxa - CD Cruz Azul : 02:00</t>
+          <t>Real Madriz FC - Club Sport Sébaco : 0:0</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CD Cruz Azul</t>
+          <t>Club Sport Sébaco</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -2413,28 +2469,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Club Athlétique Bizertin  - Stade Tunisien: 15:00</t>
+          <t>FK Mornar Bar  - OFK Grbalj: 16:00</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.67</v>
+        <v>1.85</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Club Athlétique Bizertin</t>
+          <t>FK Mornar Bar</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2448,28 +2504,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aurora FC  - Atlético Mictlán: 17:00</t>
+          <t>Rancho Santana FC  - Deportivo Walter Ferretti: 23:00</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.64</v>
+        <v>1.47</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Aurora FC</t>
+          <t>Rancho Santana FC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2483,28 +2539,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Egersunds IK  - Moss FK: 17:00</t>
+          <t>Club A.B.B. - Real Oruro : 20:00</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.61</v>
+        <v>1.97</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Egersunds IK</t>
+          <t>Real Oruro</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2518,23 +2574,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ES Mostaganem - CR Belouizdad : 23:00</t>
+          <t>Paradou AC  - USM Khenchela: 23:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.54</v>
+        <v>2.01</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CR Belouizdad</t>
+          <t>Paradou AC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2553,15 +2609,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Al Ahly FC  - Ittihad Alexandria SC: 15:00</t>
+          <t>Chacaritas FC  - CSD Vargas Torres: 21:00</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Al Ahly FC</t>
+          <t>Chacaritas FC</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2569,12 +2625,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2588,1430 +2644,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IK Start  - Skeid Oslo: 17:00</t>
+          <t>ES Ben Aknoun - ES Sétif : 23:00</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.15</v>
+        <v>0.7</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>IK Start</t>
+          <t>ES Sétif</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Makedonija Gjorce Petrov - Struga Trim &amp; Lum : 13:00</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Struga Trim &amp; Lum</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>13</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Millonarios FC  - Atlético Bucaramanga: 00:00</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Millonarios FC</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>CD Real Tomayapo - Bolívar La Paz : 01:00</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Bolívar La Paz</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Ratchaburi FC  - Eastern: 13:15</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Ratchaburi FC</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="n">
-        <v>28</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ratchaburi FC  - Eastern SC: 13:15</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Ratchaburi FC</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="n">
-        <v>28</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt - Liverpool FC : 20:00</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Liverpool FC</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="n">
-        <v>20</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Harju JK Laagri  - Jalgpallikool Tammeka: 16:00</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Harju JK Laagri</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
-        <v>16</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Olympique Akbou  - MB Rouissat: 23:00</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Olympique Akbou</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="n">
-        <v>23</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Swansea City  - Queens Park Rangers: 19:45</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Swansea City</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
-        <v>64</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>FC Rostov  - FC Pari Nizhniy Novgorod: 18:30</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>FC Rostov</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
-        <v>48</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Al-Jandal SC - Al-Jabalain FC : 16:20</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Al-Jabalain FC</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
-        <v>36</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Shanghai Shenhua  - FC Seoul: 13:15</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Shanghai Shenhua</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>28</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CS Cartaginés  - CD Motagua Tegucigalpa: 03:00</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>CS Cartaginés</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Rancho Santana FC  - Deportivo Walter Ferretti: 23:00</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Rancho Santana FC</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
-        <v>23</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>FC Kolkheti-1913 Poti  - FC Telavi: 11:00</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>FC Kolkheti-1913 Poti</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>11</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Stellenbosch FC  - Lamontville Golden Arrows: 18:30</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Stellenbosch FC</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>48</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Sheffield Wednesday - Middlesbrough FC : 20:00</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Middlesbrough FC</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="n">
-        <v>20</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Cumbayá FC  - Atlético Vinotinto: 21:00</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Cumbayá FC</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="n">
-        <v>21</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>FC Ordino  - UE Santa Coloma: 10:00</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>FC Ordino</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="n">
-        <v>10</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CA Huracán  - CA Central Córdoba (SdE): 23:30</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>CA Huracán</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="n">
-        <v>53</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Rubin Kazan  - Akhmat Grozny: 16:00</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Rubin Kazan</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="n">
-        <v>16</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Lugazi FC - Uganda Revenue Authority FC : 14:00</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Uganda Revenue Authority FC</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="n">
-        <v>14</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>AS Monaco - Tottenham Hotspur : 20:00</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="n">
-        <v>20</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira  - Envigado FC: 02:00</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>FC Samgurali Tskaltubo - Dinamo Tbilisi : 16:00</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Dinamo Tbilisi</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="n">
-        <v>16</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>FC Noah Erewan II  - FC Urartu Erewan II: 15:00</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>FC Noah Erewan II</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="n">
-        <v>15</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Istiqlol Dushanbe - Al-Zawraa SC : 14:45</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Al-Zawraa SC</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="n">
-        <v>59</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Mazatlán FC  - Santos Laguna: 04:00</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mazatlán FC</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="n">
-        <v>4</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Watford FC  - West Bromwich Albion: 19:45</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Watford FC</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="n">
-        <v>64</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Universitario de Vinto  - CA Nacional Potosí: 23:00</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Universitario de Vinto</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="n">
-        <v>23</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Deportivo Achuapa  - Deportivo Marquense: 22:00</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Deportivo Achuapa</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="n">
-        <v>22</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Real Madriz FC - Club Sport Sébaco : 01:00</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Club Sport Sébaco</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Enosis Neon Paralimniou  - Chalkanoras Idaliou: 15:00</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Enosis Neon Paralimniou</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
-        <v>15</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Club A.B.B. - Real Oruro : 20:00</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>2</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Real Oruro</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="n">
-        <v>20</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Al-Arabi SC  - Al-Raed SFC: 18:00</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Al-Arabi SC</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="n">
-        <v>18</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Chacaritas FC  - CSD Vargas Torres: 21:00</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Chacaritas FC</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="n">
-        <v>21</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Raufoss IL  - Sogndal IL: 17:00</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Raufoss IL</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="n">
-        <v>17</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Paradou AC  - USM Khenchela: 23:00</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Paradou AC</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="n">
-        <v>23</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Al-Jubail Club  - Al-Tai FC: 15:40</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Al-Jubail Club</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
-        <v>55</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ES Ben Aknoun - ES Sétif : 23:00</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>ES Sétif</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="n">
-        <v>23</v>
-      </c>
-      <c r="I102" t="b">
         <v>0</v>
       </c>
     </row>

--- a/2025-10-22/22_ai.full_fixtures.xlsx
+++ b/2025-10-22/22_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +488,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
+          <t>Zenit St. Petersburg ✓ - FC Orenburg: 6:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Zenit St. Petersburg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -504,12 +504,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -523,15 +527,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CF América ✓ - Puebla FC: 2:1</t>
+          <t>Bayern Munich ✓ - Club Brugge KV: 4:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.22</v>
+        <v>2.61</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CF América</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -548,10 +552,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Real Madrid  - Juventus FC: 20:00</t>
+          <t>Galatasaray ✓ - FK Bodø/Glimt: 3:1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.04</v>
+        <v>3.41</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -578,15 +582,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -597,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
+          <t>Odds BK - Lillestrøm SK ✓: 1:7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.03</v>
+        <v>2.51</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Lillestrøm SK</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -613,12 +621,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -632,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FC Santa Coloma ✓ - Penya Encarnada d'Andorra: 1:0</t>
+          <t>CF América ✓ - Puebla FC: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Santa Coloma</t>
+          <t>CF América</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -648,7 +660,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -657,7 +669,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -671,15 +683,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
+          <t>Real Madrid ✓ - Juventus FC: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.21</v>
+        <v>2.94</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -687,15 +699,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -706,31 +722,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
+          <t>FC Goa - Al-Nassr FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.88</v>
+        <v>2.12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Kabylie</t>
+          <t>Al-Nassr FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -741,31 +761,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MC Algiers  - JS Saoura: 23:00</t>
+          <t>FC Sardarapat ✓ - FC Andranik: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.07</v>
+        <v>3.78</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>FC Sardarapat</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -776,28 +800,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira  - Zamora FC: 1:1</t>
+          <t>Aris Limassol ✓ - Omonia 29is Maiou: 2:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -811,28 +839,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MC Algiers  - Paradou AC: 20:00</t>
+          <t>Chelsea FC ✓ - Ajax Amsterdam: 5:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -846,23 +878,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CF Monterrey ✓ - FC Juárez: 4:2</t>
+          <t>Kongsvinger IL ✓ - IL Hødd: 3:0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.19</v>
+        <v>3.89</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CF Monterrey</t>
+          <t>Kongsvinger IL</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -871,10 +903,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -885,15 +917,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Atalanta BC  - SK Slavia Prague: 20:00</t>
+          <t>FCI Levadia X - Paide Linnameeskond: 1:2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atalanta BC</t>
+          <t>FCI Levadia</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -901,12 +933,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -920,31 +956,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FC Rànger's  - FC Pas de la Casa: 13:30</t>
+          <t>Kalev Tallinn - Kalju FC ✓: 0:2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.95</v>
+        <v>3.76</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Rànger's</t>
+          <t>Kalju FC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -955,28 +995,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sporting CP  - Olympique Marseille: 20:00</t>
+          <t>Aalesunds FK ✓ - Lyn 1896 FK: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.31</v>
+        <v>1.84</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Aalesunds FK</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -990,23 +1034,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gamba Osaka ✓ - Thep Xanh Nam Dinh FC: 3:1</t>
+          <t>FC Santa Coloma ✓ - Penya Encarnada d'Andorra: 1:0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.11</v>
+        <v>2.43</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>FC Santa Coloma</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1015,7 +1059,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1029,28 +1073,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Swift Hesperange  - Racing FC Union Luxembourg: 19:00</t>
+          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.59</v>
+        <v>2.21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Swift Hesperange</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1064,35 +1108,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FC Ostrovets X - Dinamo-BGUFK Minsk: 0:1</t>
+          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.01</v>
+        <v>0.88</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Ostrovets</t>
+          <t>JS Kabylie</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1103,15 +1143,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ratchaburi FC ✓ - Eastern SC: 5:1</t>
+          <t>Stabæk Fotball ✓ - Åsane Fotball: 2:0</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ratchaburi FC</t>
+          <t>Stabæk Fotball</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1119,7 +1159,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1128,10 +1168,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1142,32 +1182,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ratchaburi FC ✓ - Eastern: 5:1</t>
+          <t>MC Algiers  - JS Saoura: 23:00</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.97</v>
+        <v>1.07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ratchaburi FC</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1181,15 +1217,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gangwon FC - Vissel Kobe X: 4:3</t>
+          <t>Deportivo La Guaira  - Zamora FC: 1:1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1197,19 +1233,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1220,28 +1252,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bashkimi - Sileks Kratovo : 13:00</t>
+          <t>MC Algiers ✓ - Paradou AC: 2:1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sileks Kratovo</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1255,31 +1291,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FK Otrant-Olympic Ulcinj  - Rudar Pljevlja: 13:30</t>
+          <t>FK Panevėžys X - FK Riteriai: 0:1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.95</v>
+        <v>2.74</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FK Otrant-Olympic Ulcinj</t>
+          <t>FK Panevėžys</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1290,31 +1330,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MC Oran  - CS Constantine: 23:00</t>
+          <t>Egersunds IK ✓ - Moss FK: 2:0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Egersunds IK</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1325,28 +1369,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USM Alger  - ASO Chlef: 23:00</t>
+          <t>APOEL Nicosia ✓ - AEZ Zakakiou: 5:0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>1.86</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>APOEL Nicosia</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1360,28 +1408,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maroons FC  - Calvary FC: 0:0</t>
+          <t>Orlando Pirates ✓ - Polokwane City FC: 1:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.65</v>
+        <v>0.84</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maroons FC</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1395,15 +1447,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wrexham AFC  - Oxford United: 19:45</t>
+          <t>Esteghlal FC ✓ - Al-Wehdat SC: 2:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wrexham AFC</t>
+          <t>Esteghlal FC</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1411,15 +1463,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1430,23 +1486,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Club Necaxa - CD Cruz Azul ✓: 1:2</t>
+          <t>Sporting CP ✓ - Olympique Marseille: 2:1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CD Cruz Azul</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1469,28 +1525,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FK Iskra Danilovgrad  - Arsenal Tivat: 14:30</t>
+          <t>Transport United X - Ugyen Academy FC: 1:4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.13</v>
+        <v>3.43</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FK Iskra Danilovgrad</t>
+          <t>Transport United</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1504,15 +1564,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Carabobo FC  - Metropolitanos FC: 22:30</t>
+          <t>ES Zarzis - Esperance Tunis : 0:0</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Carabobo FC</t>
+          <t>Esperance Tunis</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1580,15 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1539,15 +1599,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ES Mostaganem - CR Belouizdad : 23:00</t>
+          <t>FC Rànger's  - FC Pas de la Casa: 13:30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CR Belouizdad</t>
+          <t>FC Rànger's</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1555,12 +1615,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1574,28 +1634,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Makedonija Gjorce Petrov - Struga Trim &amp; Lum : 13:00</t>
+          <t>Etoile Sportive du Sahel X - Olympique Beja: 1:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.58</v>
+        <v>1.46</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Struga Trim &amp; Lum</t>
+          <t>Etoile Sportive du Sahel</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1609,28 +1673,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Millonarios FC  - Atlético Bucaramanga: 1:1</t>
+          <t>FK Kauno Žalgiris X - FK Žalgiris Vilnius: 1:2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Millonarios FC</t>
+          <t>FK Kauno Žalgiris</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1644,23 +1712,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua ✓ - FC Seoul: 2:0</t>
+          <t>Ararati Araks - FC Hayk ✓: 0:2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.66</v>
+        <v>0.9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>FC Hayk</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1672,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1683,28 +1751,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OSK Igalo  - FK Mladost Donja Gorica: 13:30</t>
+          <t>CF Monterrey ✓ - FC Juárez: 4:2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OSK Igalo</t>
+          <t>CF Monterrey</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1718,23 +1790,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta ✓ - Dewa United Banten FC: 2:0</t>
+          <t>Gamba Osaka ✓ - Thep Xanh Nam Dinh FC: 3:1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.14</v>
+        <v>3.14</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1743,7 +1815,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1757,31 +1829,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Olympique Akbou  - MB Rouissat: 23:00</t>
+          <t>FC Ararat Yerevan II - FC Ararat-Armenia II X: 3:1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.64</v>
+        <v>3.21</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>FC Ararat-Armenia II</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1792,15 +1868,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Swansea City  - Queens Park Rangers: 19:45</t>
+          <t>BKMA Yerevan II ✓ - FC Van II: 10:4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>BKMA Yerevan II</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,12 +1884,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1827,31 +1907,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FK Jezero  - FK Bokelj: 14:30</t>
+          <t>FC Inter Turku ✓ - IF Gnistan: 2:1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.57</v>
+        <v>2.72</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FK Jezero</t>
+          <t>FC Inter Turku</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1862,31 +1946,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aurora FC  - Atlético Mictlán: 17:00</t>
+          <t>Ranheim IL ✓ - Mjøndalen IF: 3:0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.71</v>
+        <v>3.12</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Aurora FC</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1897,15 +1985,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FC Kolkheti-1913 Poti X - FC Telavi: 0:1</t>
+          <t>Atalanta BC  - SK Slavia Prague: 0:0</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FC Kolkheti-1913 Poti</t>
+          <t>Atalanta BC</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1913,16 +2001,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1936,32 +2020,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CS Cartaginés ✓ - CD Motagua Tegucigalpa: 1:0</t>
+          <t>Kaizer Chiefs  - Siwelele Football Club: 0:0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CS Cartaginés</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -1975,28 +2055,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Deportivo Achuapa  - Deportivo Marquense: 22:00</t>
+          <t>Al Ahly FC ✓ - Ittihad Alexandria SC: 2:1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.72</v>
+        <v>1.29</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Deportivo Achuapa</t>
+          <t>Al Ahly FC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2010,28 +2094,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday - Middlesbrough FC : 20:00</t>
+          <t>Swift Hesperange  - Racing FC Union Luxembourg: 19:00</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.21</v>
+        <v>1.59</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Middlesbrough FC</t>
+          <t>Swift Hesperange</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2045,28 +2129,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FC Ordino X - UE Santa Coloma: 0:2</t>
+          <t>Shanghai Shenhua ✓ - FC Seoul: 2:0</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.47</v>
+        <v>1.63</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FC Ordino</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2084,31 +2168,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CA Huracán  - CA Central Córdoba (SdE): 23:30</t>
+          <t>Dynamo Moscow ✓ - Krylya Sovetov Samara: 4:0</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.17</v>
+        <v>4.73</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CA Huracán</t>
+          <t>Dynamo Moscow</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2119,31 +2207,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt - Liverpool FC : 20:00</t>
+          <t>FC Ostrovets X - Dinamo-BGUFK Minsk: 0:1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>FC Ostrovets</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2154,28 +2246,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FK Sutjeska Niksic  - FK Lovcen Cetinje: 15:00</t>
+          <t>Ratchaburi FC ✓ - Eastern SC: 5:1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FK Sutjeska Niksic</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2189,28 +2285,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jedinstvo Bijelo Polje - OFK Petrovac : 14:00</t>
+          <t>Ratchaburi FC ✓ - Eastern: 5:1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.68</v>
+        <v>3.15</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OFK Petrovac</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H49" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2224,28 +2324,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AS Monaco - Tottenham Hotspur : 20:00</t>
+          <t>FA Šiauliai X - FK Banga Gargždai: 1:3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.95</v>
+        <v>1.46</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>FA Šiauliai</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2259,31 +2363,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mazatlán FC  - Santos Laguna: 2:2</t>
+          <t>El Masry SC  - Smouha SC: 0:0</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.53</v>
+        <v>0.92</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mazatlán FC</t>
+          <t>El Masry SC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2294,15 +2398,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Watford FC  - West Bromwich Albion: 19:45</t>
+          <t>Dinamo Batumi X - FC Gareji: 1:4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Watford FC</t>
+          <t>Dinamo Batumi</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2310,12 +2414,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H52" t="n">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2329,28 +2437,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Universitario de Vinto  - CA Nacional Potosí: 23:00</t>
+          <t>Bashkimi - Sileks Kratovo : 13:00</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Sileks Kratovo</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -2364,15 +2472,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cumbayá FC  - Atlético Vinotinto: 21:00</t>
+          <t>FK Otrant-Olympic Ulcinj  - Rudar Pljevlja: 13:30</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Cumbayá FC</t>
+          <t>FK Otrant-Olympic Ulcinj</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2380,12 +2488,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2399,15 +2507,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lugazi FC  - Uganda Revenue Authority FC: 0:0</t>
+          <t>MC Oran  - CS Constantine: 23:00</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Lugazi FC</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2415,15 +2523,15 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2434,15 +2542,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Real Madriz FC - Club Sport Sébaco : 0:0</t>
+          <t>Athletic Bilbao - Qarabağ FK X: 3:1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Club Sport Sébaco</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2450,15 +2558,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2469,31 +2581,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FK Mornar Bar  - OFK Grbalj: 16:00</t>
+          <t>Club Necaxa - CD Cruz Azul ✓: 1:2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.85</v>
+        <v>2.99</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FK Mornar Bar</t>
+          <t>CD Cruz Azul</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H57" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2504,28 +2620,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rancho Santana FC  - Deportivo Walter Ferretti: 23:00</t>
+          <t>FC Rostov ✓ - FC Pari Nizhniy Novgorod: 4:1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.47</v>
+        <v>2.01</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rancho Santana FC</t>
+          <t>FC Rostov</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H58" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2539,15 +2659,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Club A.B.B. - Real Oruro : 20:00</t>
+          <t>Esporte Clube Bahia ✓ - Sport Club Internacional: 1:0</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Real Oruro</t>
+          <t>Esporte Clube Bahia</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2555,15 +2675,19 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H59" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2574,23 +2698,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Paradou AC  - USM Khenchela: 23:00</t>
+          <t>USM Alger  - ASO Chlef: 23:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.01</v>
+        <v>0.9</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Paradou AC</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2609,31 +2733,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chacaritas FC  - CSD Vargas Torres: 21:00</t>
+          <t>Maroons FC  - Calvary FC: 0:0</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Chacaritas FC</t>
+          <t>Maroons FC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2644,30 +2768,1985 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Wrexham AFC ✓ - Oxford United: 1:0</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wrexham AFC</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>HJK Helsinki X - SJK Seinäjoki: 3:4</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>HJK Helsinki</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>IK Start ✓ - Skeid Oslo: 2:1</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>IK Start</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FK Iskra Danilovgrad  - Arsenal Tivat: 14:30</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FK Iskra Danilovgrad</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>44</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Carabobo FC  - Metropolitanos FC: 22:30</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Carabobo FC</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>52</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ES Mostaganem - CR Belouizdad : 23:00</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CR Belouizdad</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>23</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Makedonija Gjorce Petrov - Struga Trim &amp; Lum : 13:00</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Struga Trim &amp; Lum</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>13</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Millonarios FC  - Atlético Bucaramanga: 1:1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Millonarios FC</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FC Samgurali Tskaltubo ✓ - Dinamo Tbilisi: 2:1</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FC Samgurali Tskaltubo</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Konyaspor - Besiktas JK ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Besiktas JK</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>OSK Igalo  - FK Mladost Donja Gorica: 13:30</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>OSK Igalo</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>43</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PSIM Yogyakarta ✓ - Dewa United Banten FC: 2:0</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PSIM Yogyakarta</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Gangwon FC - Vissel Kobe X: 4:3</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Olympique Akbou  - MB Rouissat: 23:00</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Olympique Akbou</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>23</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Club Athlétique Bizertin - Stade Tunisien ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Al-Jandal SC - Al-Jabalain FC : 1:1</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Al-Jabalain FC</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FK Jezero  - FK Bokelj: 14:30</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FK Jezero</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>44</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rubin Kazan  - Akhmat Grozny: 3:3</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Rubin Kazan</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Swansea City X - Queens Park Rangers: 0:1</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Istiqlol Dushanbe - Al-Zawraa SC X: 2:1</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Al-Zawraa SC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Aurora FC  - Atlético Mictlán: 17:00</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Aurora FC</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>17</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Watford FC ✓ - West Bromwich Albion: 2:1</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Watford FC</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt - Liverpool FC ✓: 1:5</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Liverpool FC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bohemians Prague 1905  - FK Mlada Boleslav: 1:1</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Bohemians Prague 1905</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday - Middlesbrough FC ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Middlesbrough FC</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Deportivo Achuapa  - Deportivo Marquense: 22:00</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Deportivo Achuapa</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>22</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Stellenbosch FC ✓ - Lamontville Golden Arrows: 4:3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Stellenbosch FC</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FK Sutjeska Foca  - FK Slavija Sarajevo: 0:0</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FK Sutjeska Foca</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CA Huracán X - CA Central Córdoba (SdE): 0:1</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CA Huracán</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FK Sutjeska Niksic  - FK Lovcen Cetinje: 15:00</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>FK Sutjeska Niksic</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>15</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Jedinstvo Bijelo Polje - OFK Petrovac : 14:00</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>OFK Petrovac</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>14</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Club A.B.B. - Real Oruro ✓: 1:2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Real Oruro</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FC Noah Erewan II  - FC Urartu Erewan II: 1:1</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>FC Noah Erewan II</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FC Ordino - UE Santa Coloma ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>UE Santa Coloma</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FC Kolkheti-1913 Poti X - FC Telavi: 0:1</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>FC Kolkheti-1913 Poti</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ABFF U19  - Niva Dolbizno: 1:1</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ABFF U19</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CS Cartaginés ✓ - CD Motagua Tegucigalpa: 1:0</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CS Cartaginés</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mazatlán FC  - Santos Laguna: 2:2</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Mazatlán FC</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Harju JK Laagri  - Jalgpallikool Tammeka: 2:2</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Harju JK Laagri</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Caykur Rizespor  - Basaksehir FK: 0:0</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Caykur Rizespor</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto ✓ - CA Nacional Potosí: 4:3</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cumbayá FC  - Atlético Vinotinto: 0:0</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cumbayá FC</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AS Monaco - Tottenham Hotspur : 0:0</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lugazi FC  - Uganda Revenue Authority FC: 0:0</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Lugazi FC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Real Madriz FC - Club Sport Sébaco : 0:0</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Club Sport Sébaco</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FK Mornar Bar  - OFK Grbalj: 16:00</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>FK Mornar Bar</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>16</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Raufoss IL - Sogndal IL ✓: 1:3</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sogndal IL</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Enosis Neon Paralimniou ✓ - Chalkanoras Idaliou: 2:0</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Enosis Neon Paralimniou</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Rancho Santana FC  - Deportivo Walter Ferretti: 1:1</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Rancho Santana FC</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Al-Arabi SC ✓ - Al-Raed SFC: 1:0</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Al-Arabi SC</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Paradou AC  - USM Khenchela: 23:00</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Paradou AC</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>23</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Chacaritas FC X - CSD Vargas Torres: 0:1</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Chacaritas FC</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Al-Jubail Club X - Al-Tai FC: 1:4</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Al-Jubail Club</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>ES Ben Aknoun - ES Sétif : 23:00</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C115" t="n">
         <v>0.7</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>ES Sétif</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="E115" t="n">
         <v>1.5</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
         <v>23</v>
       </c>
-      <c r="I62" t="b">
+      <c r="I115" t="b">
         <v>0</v>
       </c>
     </row>
